--- a/backend/reports/generated/reporte-cmedchpym0001epe0k9689ese.xlsx
+++ b/backend/reports/generated/reporte-cmedchpym0001epe0k9689ese.xlsx
@@ -401,12 +401,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
@@ -417,73 +417,106 @@
       <c r="A1" t="str">
         <v>Reporte de Monitoreo Acuático - SENA</v>
       </c>
-      <c r="B1" t="str">
-        <v>Título: Reporte tanque 3 - 15-08-25</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Tanque: tanque 3</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Período: 08/08/2025 - 15/08/2025</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Generado el: 15/08/2025 16:33</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Tipo de Sensor</v>
+        <v>Título:</v>
       </c>
       <c r="B3" t="str">
-        <v>Nº Registros</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Promedio</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Mínimo</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Máximo</v>
+        <v>Reporte tanque 3 - 15-08-25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>OXYGEN</v>
-      </c>
-      <c r="B4">
-        <v>1025</v>
-      </c>
-      <c r="C4" t="str">
-        <v>4.95</v>
-      </c>
-      <c r="D4" t="str">
-        <v>3.50</v>
-      </c>
-      <c r="E4" t="str">
-        <v>6.40</v>
+        <v>Tanque:</v>
+      </c>
+      <c r="B4" t="str">
+        <v>tanque 3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>PH</v>
-      </c>
-      <c r="B5">
+        <v>Período:</v>
+      </c>
+      <c r="B5" t="str">
+        <v>08/08/2025 - 15/08/2025</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Generado el:</v>
+      </c>
+      <c r="B6" t="str">
+        <v>15/08/2025 16:38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Resumen Estadístico</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Tipo de Sensor</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Nº Registros</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Promedio</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Mínimo</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Máximo</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>OXYGEN</v>
+      </c>
+      <c r="B10">
         <v>1025</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C10" t="str">
+        <v>4.95</v>
+      </c>
+      <c r="D10" t="str">
+        <v>3.50</v>
+      </c>
+      <c r="E10" t="str">
+        <v>6.40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>PH</v>
+      </c>
+      <c r="B11">
+        <v>1025</v>
+      </c>
+      <c r="C11" t="str">
         <v>7.27</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D11" t="str">
         <v>6.10</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E11" t="str">
         <v>8.40</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A8:E8"/>
+  </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E11"/>
   </ignoredErrors>
 </worksheet>
 </file>
